--- a/biology/Botanique/Phaeosphaeria_nodorum/Phaeosphaeria_nodorum.xlsx
+++ b/biology/Botanique/Phaeosphaeria_nodorum/Phaeosphaeria_nodorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaeosphaeria nodorum est une espèce de champignons ascomycètes de la famille des Phaeosphaeriaceae.
 Ce champignon est responsable de la septoriose du blé et de la fonte des semis.
@@ -514,12 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Synonymes selon Catalogue of Life                                   (28 août 2014)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Synonymes selon Catalogue of Life                                   (28 août 2014) :
 Leptosphaeria nodorum E. Müll. 1952. (anamorphe : Stagonospora nodorum),
 Phoma hennebergii Lopr. 1893.
 Septoria glumarum Pass. 1879.
-Parastagonospora nodorum Quaedvlieg, Verkley &amp; Crous. 2013)[2].</t>
+Parastagonospora nodorum Quaedvlieg, Verkley &amp; Crous. 2013).</t>
         </is>
       </c>
     </row>
@@ -549,14 +566,89 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuilles
-Le champignon forme des taches losangiques sur lesquelles apparaissent des pycnides brunes. En périodes humides les pycnides émettent des cirrhes roses remplis de conidies. La pluie en projetant des fragments de cirrhe propage la maladie des feuilles basses vers les feuilles hautes.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le champignon forme des taches losangiques sur lesquelles apparaissent des pycnides brunes. En périodes humides les pycnides émettent des cirrhes roses remplis de conidies. La pluie en projetant des fragments de cirrhe propage la maladie des feuilles basses vers les feuilles hautes.
 Des taches jaunâtres se forment également sur la gaine.
 Des symptômes peuvent également apparaitre sur nœud (d'où le nom nodorum). Ceux-ci sont alors striés, déprimés et cassants.
-Épis
-On voit des taches violettes sur la partie supérieures des glumes et des glumelles.
-Semences
-Les grains sont tachés et déprimés[3]. La semence peut transmettre la maladie à la plantule qui présente des taches sur racines et cotylédons et finit par dépérir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phaeosphaeria_nodorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phaeosphaeria_nodorum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Épis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On voit des taches violettes sur la partie supérieures des glumes et des glumelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phaeosphaeria_nodorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phaeosphaeria_nodorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Semences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grains sont tachés et déprimés. La semence peut transmettre la maladie à la plantule qui présente des taches sur racines et cotylédons et finit par dépérir.
 </t>
         </is>
       </c>
